--- a/Content/Documents/Pizza resources.xlsx
+++ b/Content/Documents/Pizza resources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Ingredients" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="144">
   <si>
     <t>Tomatoes</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Pizza boxes</t>
   </si>
   <si>
     <t>Dough</t>
@@ -533,6 +530,45 @@
   </si>
   <si>
     <t>*All pizzas for delivery or take out require 1 pizza box.</t>
+  </si>
+  <si>
+    <t>Small pizza box</t>
+  </si>
+  <si>
+    <t>Medium pizza box</t>
+  </si>
+  <si>
+    <t>Large pizza box</t>
+  </si>
+  <si>
+    <t>Cherry syrup</t>
+  </si>
+  <si>
+    <t>Grape syrup</t>
+  </si>
+  <si>
+    <t>Cucumbers</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Iceberg Lettuce</t>
+  </si>
+  <si>
+    <t>Romaine Lettuce</t>
+  </si>
+  <si>
+    <t>Bolognaise sauce</t>
+  </si>
+  <si>
+    <t>Tomatoes
+Ground Beef
+Onions
+Basil</t>
   </si>
 </sst>
 </file>
@@ -918,567 +954,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="8"/>
-    <col min="4" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="8"/>
+    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>108</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>108</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E104">
+    <sortCondition ref="A2:A104"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1486,438 +1597,447 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>63</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
@@ -1925,24 +2045,24 @@
         <v>99</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1951,294 +2071,303 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>24</v>
+        <v>110</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="8">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
     </row>
-    <row r="52" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+    </row>
+    <row r="60" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H60">
+    <sortCondition ref="C2:C60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2251,138 +2380,138 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
     </row>
   </sheetData>
